--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 6 (33, 49, 46, 37, 41)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(33, 49, 46, 37, 41)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 6 (33, 49, 46, 37, 41)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(33, 49, 46, 37, 41)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9443807391986272</v>
+        <v>0.9444154798013937</v>
       </c>
       <c r="E2">
-        <v>0.9443807391986272</v>
+        <v>0.9444154798013937</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0003095564601969833</v>
+        <v>0.0003106111345444427</v>
       </c>
       <c r="E3">
-        <v>0.0003095564601969833</v>
+        <v>0.0003106111345444427</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.003129551700287392</v>
+        <v>0.003128754952689148</v>
       </c>
       <c r="E4">
-        <v>0.003129551700287392</v>
+        <v>0.003128754952689148</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0001895389907642777</v>
+        <v>0.0001894159094018535</v>
       </c>
       <c r="E5">
-        <v>0.0001895389907642777</v>
+        <v>0.0001894159094018535</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7390973962943279</v>
+        <v>0.7391647162181709</v>
       </c>
       <c r="E6">
-        <v>0.7390973962943279</v>
+        <v>0.7391647162181709</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9523182208063206</v>
+        <v>0.9999999683112414</v>
       </c>
       <c r="E7">
-        <v>0.04768177919367944</v>
+        <v>3.168875861714326E-08</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9360244260362177</v>
+        <v>0.2251247457340769</v>
       </c>
       <c r="E8">
-        <v>0.06397557396378228</v>
+        <v>0.7748752542659232</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9489749295247247</v>
+        <v>0.5791340029517763</v>
       </c>
       <c r="E9">
-        <v>0.05102507047527527</v>
+        <v>0.4208659970482237</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9349802726010946</v>
+        <v>0.8823237379389625</v>
       </c>
       <c r="E10">
-        <v>0.06501972739890538</v>
+        <v>0.1176762620610375</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9438700233013018</v>
+        <v>0.0008103353063904546</v>
       </c>
       <c r="E11">
-        <v>0.05612997669869824</v>
+        <v>0.9991896646936096</v>
       </c>
       <c r="F11">
-        <v>0.4528807103633881</v>
+        <v>1.351793169975281</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9981070515227193</v>
+        <v>0.9980750372295302</v>
       </c>
       <c r="E12">
-        <v>0.9981070515227193</v>
+        <v>0.9980750372295302</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2.385502638980105E-06</v>
+        <v>2.389245021323969E-06</v>
       </c>
       <c r="E13">
-        <v>2.385502638980105E-06</v>
+        <v>2.389245021323969E-06</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.001401488126861214</v>
+        <v>0.001406661838687808</v>
       </c>
       <c r="E14">
-        <v>0.001401488126861214</v>
+        <v>0.001406661838687808</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>3.957907508022084E-05</v>
+        <v>3.97337176711579E-05</v>
       </c>
       <c r="E15">
-        <v>3.957907508022084E-05</v>
+        <v>3.97337176711579E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.7703999464245891</v>
+        <v>0.7708014978983186</v>
       </c>
       <c r="E16">
-        <v>0.7703999464245891</v>
+        <v>0.7708014978983186</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9992302306348063</v>
+        <v>0.9999999995207094</v>
       </c>
       <c r="E17">
-        <v>0.0007697693651936843</v>
+        <v>4.792906072026426E-10</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9986479552339171</v>
+        <v>0.004079516649088826</v>
       </c>
       <c r="E18">
-        <v>0.001352044766082861</v>
+        <v>0.9959204833509112</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.999151077681685</v>
+        <v>0.9769829433387397</v>
       </c>
       <c r="E19">
-        <v>0.0008489223183150152</v>
+        <v>0.0230170566612603</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9988089051575937</v>
+        <v>0.6341044172542758</v>
       </c>
       <c r="E20">
-        <v>0.001191094842406315</v>
+        <v>0.3658955827457242</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9989728069840064</v>
+        <v>1.084996148672812E-08</v>
       </c>
       <c r="E21">
-        <v>0.001027193015993633</v>
+        <v>0.9999999891500385</v>
       </c>
       <c r="F21">
-        <v>0.7747672200202942</v>
+        <v>3.20471715927124</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
